--- a/results/A-03.xlsx
+++ b/results/A-03.xlsx
@@ -733,37 +733,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6938.486645305698</v>
+        <v>-6993.552241803531</v>
       </c>
       <c r="C2">
-        <v>13277.05299954982</v>
+        <v>13330.70862908129</v>
       </c>
       <c r="D2">
-        <v>-5686.551630053276</v>
+        <v>-5686.582311710362</v>
       </c>
       <c r="E2">
-        <v>-652.0147241905108</v>
+        <v>-650.5740755674435</v>
       </c>
       <c r="F2">
-        <v>61.11222405801806</v>
+        <v>60.92981298656036</v>
       </c>
       <c r="G2">
-        <v>45.03111408016196</v>
+        <v>45.0390723501958</v>
       </c>
       <c r="H2">
-        <v>61.56594428545873</v>
+        <v>61.37293967784098</v>
       </c>
       <c r="I2">
-        <v>44.68658431001654</v>
+        <v>44.69642864647369</v>
       </c>
       <c r="J2">
-        <v>61.01521666333065</v>
+        <v>60.83066004025909</v>
       </c>
       <c r="K2">
-        <v>45.00203690475701</v>
+        <v>45.00241456369662</v>
       </c>
       <c r="L2">
-        <v>54.91212377900814</v>
+        <v>54.99078891686219</v>
       </c>
       <c r="M2">
         <v>45</v>
@@ -772,22 +772,22 @@
         <v>65</v>
       </c>
       <c r="O2">
-        <v>46.03278142921454</v>
+        <v>45.95613052988386</v>
       </c>
       <c r="P2">
-        <v>53.12364518579039</v>
+        <v>53.12368901672909</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="R2">
-        <v>6.163830601654526</v>
+        <v>6.287176378676221</v>
       </c>
       <c r="S2">
-        <v>-11.236929953731</v>
+        <v>-11.41957657347872</v>
       </c>
       <c r="T2">
-        <v>5.073099352076469</v>
+        <v>5.132400194802501</v>
       </c>
       <c r="U2">
         <v>10</v>
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="X2">
-        <v>-44.25582206456059</v>
+        <v>-45.53134160081841</v>
       </c>
       <c r="Y2">
-        <v>-70.91370486337401</v>
+        <v>-70.18623930993614</v>
       </c>
       <c r="Z2">
-        <v>-52.8556486142334</v>
+        <v>-53.75641409691111</v>
       </c>
       <c r="AB2">
         <v>10</v>
@@ -817,91 +817,91 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>-6.163830601654526</v>
+        <v>-6.287176378676221</v>
       </c>
       <c r="AF2">
-        <v>5.073099352076469</v>
+        <v>5.132400194802501</v>
       </c>
       <c r="AG2">
-        <v>6.163830601654526</v>
+        <v>6.287176378676221</v>
       </c>
       <c r="AH2">
-        <v>-11.236929953731</v>
+        <v>-11.41957657347872</v>
       </c>
       <c r="AI2">
-        <v>5.073099352076469</v>
+        <v>5.132400194802501</v>
       </c>
       <c r="AJ2">
-        <v>6.163830601654526</v>
+        <v>6.287176378676221</v>
       </c>
       <c r="AK2">
-        <v>-5.073099352076469</v>
+        <v>-5.132400194802501</v>
       </c>
       <c r="AL2">
-        <v>13.32894139940671</v>
+        <v>12.32744885455886</v>
       </c>
       <c r="AM2">
-        <v>-9.029028124570308</v>
+        <v>-8.214912606512518</v>
       </c>
       <c r="AN2">
-        <v>-44.25582206456059</v>
+        <v>-45.53134160081841</v>
       </c>
       <c r="AO2">
-        <v>-70.91370486337401</v>
+        <v>-70.18623930993614</v>
       </c>
       <c r="AP2">
-        <v>-52.8556486142334</v>
+        <v>-53.75641409691111</v>
       </c>
       <c r="AQ2">
-        <v>-13.32894139940671</v>
+        <v>-12.32744885455886</v>
       </c>
       <c r="AR2">
-        <v>9.029028124570308</v>
+        <v>8.214912606512518</v>
       </c>
       <c r="AS2">
-        <v>61.11222405801806</v>
+        <v>60.92981298656036</v>
       </c>
       <c r="AT2">
-        <v>61.11222405801806</v>
+        <v>60.92981298656036</v>
       </c>
       <c r="AU2">
-        <v>61.56594428545884</v>
+        <v>61.37293967784092</v>
       </c>
       <c r="AV2">
-        <v>61.56594428545884</v>
+        <v>61.37293967784092</v>
       </c>
       <c r="AW2">
-        <v>61.56594428545873</v>
+        <v>61.37293967784098</v>
       </c>
       <c r="AX2">
-        <v>61.01521666333065</v>
+        <v>60.83066004025909</v>
       </c>
       <c r="AY2">
-        <v>61.01521666333065</v>
+        <v>60.83066004025909</v>
       </c>
       <c r="AZ2">
-        <v>45.03111408016196</v>
+        <v>45.0390723501958</v>
       </c>
       <c r="BA2">
-        <v>45.03111408016196</v>
+        <v>45.0390723501958</v>
       </c>
       <c r="BB2">
-        <v>44.68658431001654</v>
+        <v>44.69642864647369</v>
       </c>
       <c r="BC2">
-        <v>44.72875154457176</v>
+        <v>44.74254362597861</v>
       </c>
       <c r="BD2">
-        <v>44.63535099627779</v>
+        <v>44.63993792111262</v>
       </c>
       <c r="BE2">
-        <v>45.00203690475701</v>
+        <v>45.00241456369662</v>
       </c>
       <c r="BF2">
-        <v>45.00203690475701</v>
+        <v>45.00241456369662</v>
       </c>
       <c r="BG2">
-        <v>54.91212377900814</v>
+        <v>54.99078891686219</v>
       </c>
       <c r="BH2">
         <v>45</v>
@@ -910,10 +910,10 @@
         <v>65</v>
       </c>
       <c r="BJ2">
-        <v>46.03278142921454</v>
+        <v>45.95613052988386</v>
       </c>
       <c r="BK2">
-        <v>53.12364518579039</v>
+        <v>53.12368901672909</v>
       </c>
       <c r="BL2">
         <v>45</v>
